--- a/SpotifyClone-Non-NormalizedTable.xlsx
+++ b/SpotifyClone-Non-NormalizedTable.xlsx
@@ -648,7 +648,7 @@
   </sheetPr>
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -944,7 +944,7 @@
   </sheetPr>
   <dimension ref="A1:I1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D73" activeCellId="0" sqref="D73"/>
     </sheetView>
   </sheetViews>
@@ -1728,8 +1728,8 @@
   </sheetPr>
   <dimension ref="A1:K76"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A58" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D84" activeCellId="0" sqref="D84"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D59" activeCellId="0" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2382,11 +2382,11 @@
         <v>90</v>
       </c>
       <c r="D58" s="27" t="s">
-        <v>81</v>
+        <v>22</v>
       </c>
       <c r="E58" s="0"/>
     </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0"/>
       <c r="B59" s="30" t="n">
         <v>1</v>
@@ -2399,7 +2399,7 @@
       </c>
       <c r="E59" s="0"/>
     </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0"/>
       <c r="B60" s="30" t="n">
         <v>2</v>
@@ -2412,7 +2412,7 @@
       </c>
       <c r="E60" s="0"/>
     </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0"/>
       <c r="B61" s="30" t="n">
         <v>3</v>

--- a/SpotifyClone-Non-NormalizedTable.xlsx
+++ b/SpotifyClone-Non-NormalizedTable.xlsx
@@ -1,17 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LuisM\Desktop\temp\trybe-avaliation\sd-05-mysql-one-for-all\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="18075"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="53">
   <si>
     <t>usuario_id</t>
   </si>
@@ -28,54 +36,27 @@
     <t>valor_plano</t>
   </si>
   <si>
-    <t>historico_de_reproducoes</t>
-  </si>
-  <si>
-    <t>seguindo_artistas</t>
-  </si>
-  <si>
     <t>Thati</t>
   </si>
   <si>
     <t>gratuito</t>
   </si>
   <si>
-    <t>"Soul For Us", "Magic Circus", "Diamond Power", "Thang Of Thunder"</t>
-  </si>
-  <si>
-    <t>Walter Phoenix, Freedie Shannon, Lance Day</t>
-  </si>
-  <si>
     <t>Cintia</t>
   </si>
   <si>
     <t>familiar</t>
   </si>
   <si>
-    <t>"Home Forever", "Words Of Her Life", "Reflections Of Magic", "Honey, Let's Be Silly"</t>
-  </si>
-  <si>
-    <t>Walter Phoenix, Lance Day</t>
-  </si>
-  <si>
     <t>Bill</t>
   </si>
   <si>
     <t>universitário</t>
   </si>
   <si>
-    <t>"Troubles Of My Inner Fire", "Thang Of Thunder", "Magic Circus"</t>
-  </si>
-  <si>
-    <t>Peter Strong, Walter Phoenix,</t>
-  </si>
-  <si>
     <t>Roger</t>
   </si>
   <si>
-    <t>"Dance With Her Own", "Without My Streets", "Celebration Of More"</t>
-  </si>
-  <si>
     <t>Freedie Shannon</t>
   </si>
   <si>
@@ -88,79 +69,155 @@
     <t>artista</t>
   </si>
   <si>
-    <t>cancoes</t>
-  </si>
-  <si>
     <t>Envious</t>
   </si>
   <si>
     <t>Walter Phoenix</t>
   </si>
   <si>
-    <t>"Soul For Us", "Reflections Of Magic", "Dance With Her Own"</t>
-  </si>
-  <si>
     <t>Exuberant</t>
   </si>
   <si>
-    <t>"Troubles Of My Inner Fire", "Time Fireworks"</t>
-  </si>
-  <si>
     <t>Hallowed Steam</t>
   </si>
   <si>
     <t>Peter Strong</t>
   </si>
   <si>
-    <t>"Magic Circus", "Honey, So Do I", "Sweetie, Let's Go Wild", "She Knows"</t>
-  </si>
-  <si>
     <t>Incandescent</t>
   </si>
   <si>
     <t>Lance Day</t>
   </si>
   <si>
-    <t>"Fantasy For Me", "Celebration Of More", "Rock His Everything", "Home Forever", "Diamond Power", "Honey, Let's Be Silly"</t>
-  </si>
-  <si>
     <t>Temporary Culture</t>
   </si>
   <si>
-    <t>"Thang Of Thunder", "Words Of Her Life", "Without My Streets"</t>
+    <t>cancao_id</t>
+  </si>
+  <si>
+    <t>cancao</t>
+  </si>
+  <si>
+    <t>Soul For Us</t>
+  </si>
+  <si>
+    <t>Reflections Of Magic</t>
+  </si>
+  <si>
+    <t>Dance With Her Own</t>
+  </si>
+  <si>
+    <t>Troubles Of My Inner Fire</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Magic Circus</t>
+  </si>
+  <si>
+    <t>Honey, So Do I</t>
+  </si>
+  <si>
+    <t>Sweetie, Let's Go Wild</t>
+  </si>
+  <si>
+    <t>She Knows</t>
+  </si>
+  <si>
+    <t>Fantasy For Me</t>
+  </si>
+  <si>
+    <t>Celebration Of More</t>
+  </si>
+  <si>
+    <t>Rock His Everything</t>
+  </si>
+  <si>
+    <t>Home Forever</t>
+  </si>
+  <si>
+    <t>Diamond Power</t>
+  </si>
+  <si>
+    <t>Honey, Let's Be Silly</t>
+  </si>
+  <si>
+    <t>Thang Of Thunder</t>
+  </si>
+  <si>
+    <t>Words Of Her Life</t>
+  </si>
+  <si>
+    <t>Without My Streets</t>
+  </si>
+  <si>
+    <t>artista_id</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>reproducoes_id</t>
+  </si>
+  <si>
+    <t>seguindo_id</t>
+  </si>
+  <si>
+    <t>plano_id</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="11"/>
       <color indexed="9"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -185,8 +242,14 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -196,262 +259,181 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="11"/>
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="11"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="11"/>
+        <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="11"/>
+        <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="12"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="12"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="12"/>
-      </left>
-      <right style="thin">
-        <color indexed="12"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="12"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="12"/>
-      </right>
-      <top style="thin">
-        <color indexed="12"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="12"/>
-      </left>
-      <right style="thin">
-        <color indexed="12"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="12"/>
-      </left>
-      <right style="thin">
-        <color indexed="12"/>
-      </right>
-      <top style="thin">
-        <color indexed="12"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="12"/>
-      </right>
-      <top style="thin">
-        <color indexed="12"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+  <cellXfs count="48">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -461,27 +443,85 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ff4472c4"/>
-      <rgbColor rgb="ff8eaadb"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ffd9e2f3"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FF4472C4"/>
+      <rgbColor rgb="FF8EAADB"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FFD9E2F3"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -683,7 +723,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -702,7 +742,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -732,7 +772,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -758,7 +798,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -784,7 +824,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -810,7 +850,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -836,7 +876,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -862,7 +902,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -888,7 +928,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -914,7 +954,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -940,7 +980,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -953,9 +993,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -972,7 +1018,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -991,7 +1037,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1017,7 +1063,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1043,7 +1089,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1069,7 +1115,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1095,7 +1141,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1121,7 +1167,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1147,7 +1193,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1173,7 +1219,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1199,7 +1245,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1225,7 +1271,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1238,9 +1284,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1254,7 +1306,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1273,7 +1325,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1303,7 +1355,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1329,7 +1381,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1355,7 +1407,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1381,7 +1433,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1407,7 +1459,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1433,7 +1485,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1459,7 +1511,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1485,7 +1537,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1511,7 +1563,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1524,299 +1576,796 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.3516" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.4688" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.6719" style="1" customWidth="1"/>
-    <col min="4" max="4" width="35.1406" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="38.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.3516" style="1" customWidth="1"/>
-    <col min="8" max="8" width="22.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="24" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.85156" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="38.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="31.5" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="3">
+      <c r="C1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="3">
+      <c r="D1" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="20"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+    </row>
+    <row r="2" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="33">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="33">
+        <v>23</v>
+      </c>
+      <c r="D2" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="23"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="24"/>
+    </row>
+    <row r="3" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="34">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="34">
+        <v>35</v>
+      </c>
+      <c r="D3" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="23"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="24"/>
+    </row>
+    <row r="4" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="33">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="3">
+      <c r="B4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="33">
+        <v>20</v>
+      </c>
+      <c r="D4" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="23"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="24"/>
+    </row>
+    <row r="5" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="34">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="4">
-        <v>5</v>
-      </c>
-      <c r="G1" s="5"/>
-      <c r="H1" t="s" s="4">
-        <v>0</v>
-      </c>
-      <c r="I1" t="s" s="6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" ht="30" customHeight="1">
-      <c r="A2" s="7">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="C2" s="9">
-        <v>23</v>
-      </c>
-      <c r="D2" t="s" s="8">
-        <v>8</v>
-      </c>
-      <c r="E2" s="9">
-        <v>0</v>
-      </c>
-      <c r="F2" t="s" s="10">
-        <v>9</v>
-      </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="11">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s" s="12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" ht="45" customHeight="1">
-      <c r="A3" s="13">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s" s="14">
+      <c r="B5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="15">
-        <v>35</v>
-      </c>
-      <c r="D3" t="s" s="14">
-        <v>12</v>
-      </c>
-      <c r="E3" s="15">
-        <v>7.99</v>
-      </c>
-      <c r="F3" t="s" s="16">
-        <v>13</v>
-      </c>
-      <c r="G3" s="17"/>
-      <c r="H3" s="18">
-        <v>2</v>
-      </c>
-      <c r="I3" t="s" s="19">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" ht="31.5" customHeight="1">
-      <c r="A4" s="7">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s" s="8">
-        <v>15</v>
-      </c>
-      <c r="C4" s="9">
-        <v>20</v>
-      </c>
-      <c r="D4" t="s" s="8">
-        <v>16</v>
-      </c>
-      <c r="E4" s="9">
-        <v>5.99</v>
-      </c>
-      <c r="F4" t="s" s="10">
-        <v>17</v>
-      </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="11">
-        <v>3</v>
-      </c>
-      <c r="I4" t="s" s="12">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" ht="39" customHeight="1">
-      <c r="A5" s="13">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s" s="14">
-        <v>19</v>
-      </c>
-      <c r="C5" s="15">
+      <c r="C5" s="34">
         <v>45</v>
       </c>
-      <c r="D5" t="s" s="14">
-        <v>8</v>
-      </c>
-      <c r="E5" s="15">
-        <v>0</v>
-      </c>
-      <c r="F5" t="s" s="16">
-        <v>20</v>
-      </c>
-      <c r="G5" s="17"/>
-      <c r="H5" s="18">
-        <v>4</v>
-      </c>
-      <c r="I5" t="s" s="19">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" ht="38.1" customHeight="1">
-      <c r="A6" s="20"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="21"/>
+      <c r="D5" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="23"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="24"/>
+    </row>
+    <row r="6" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="35"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="30"/>
       <c r="F6" s="21"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-    </row>
-    <row r="7" ht="13.55" customHeight="1">
-      <c r="A7" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s" s="3">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s" s="3">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s" s="3">
-        <v>25</v>
-      </c>
-      <c r="E7" s="24"/>
-      <c r="F7" s="25"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+    </row>
+    <row r="7" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="20"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
       <c r="G7" s="22"/>
       <c r="H7" s="22"/>
       <c r="I7" s="22"/>
     </row>
-    <row r="8" ht="26.55" customHeight="1">
-      <c r="A8" s="7">
+    <row r="8" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="17"/>
+      <c r="E8" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="22"/>
+      <c r="I8" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
         <v>1</v>
       </c>
-      <c r="B8" t="s" s="8">
+      <c r="B9" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="C8" t="s" s="8">
+      <c r="C9" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="18"/>
+      <c r="E9" s="6">
+        <v>1</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" s="22"/>
+      <c r="I9" s="45">
+        <v>1</v>
+      </c>
+      <c r="J9" s="8">
+        <v>1</v>
+      </c>
+      <c r="K9" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>2</v>
+      </c>
+      <c r="B10" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="D8" t="s" s="26">
+      <c r="C10" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="18"/>
+      <c r="E10" s="9">
+        <v>2</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" s="22"/>
+      <c r="I10" s="45">
+        <v>2</v>
+      </c>
+      <c r="J10" s="8">
+        <v>2</v>
+      </c>
+      <c r="K10" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
+        <v>3</v>
+      </c>
+      <c r="B11" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="24"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-    </row>
-    <row r="9" ht="13.55" customHeight="1">
-      <c r="A9" s="13">
+      <c r="C11" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="18"/>
+      <c r="E11" s="14">
+        <v>3</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" s="22"/>
+      <c r="I11" s="45">
+        <v>3</v>
+      </c>
+      <c r="J11" s="8">
         <v>2</v>
       </c>
-      <c r="B9" t="s" s="14">
+      <c r="K11" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
+        <v>4</v>
+      </c>
+      <c r="B12" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="C9" t="s" s="14">
-        <v>27</v>
-      </c>
-      <c r="D9" t="s" s="27">
+      <c r="C12" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="18"/>
+      <c r="E12" s="9">
+        <v>4</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="H12" s="22"/>
+      <c r="I12" s="45">
+        <v>4</v>
+      </c>
+      <c r="J12" s="8">
+        <v>3</v>
+      </c>
+      <c r="K12" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
+        <v>5</v>
+      </c>
+      <c r="B13" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-    </row>
-    <row r="10" ht="26.55" customHeight="1">
-      <c r="A10" s="7">
+      <c r="C13" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="18"/>
+      <c r="E13" s="9">
+        <v>5</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="I13" s="6">
+        <v>5</v>
+      </c>
+      <c r="J13" s="8">
         <v>3</v>
       </c>
-      <c r="B10" t="s" s="8">
+      <c r="K13" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <v>6</v>
+      </c>
+      <c r="B14" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="C10" t="s" s="8">
+      <c r="C14" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="18"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="13"/>
+      <c r="I14" s="44">
+        <v>6</v>
+      </c>
+      <c r="J14" s="27">
+        <v>4</v>
+      </c>
+      <c r="K14" s="27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
+        <v>7</v>
+      </c>
+      <c r="B15" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="D10" t="s" s="26">
+      <c r="C15" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="18"/>
+      <c r="E15" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="13"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+    </row>
+    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
+        <v>8</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="24"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-    </row>
-    <row r="11" ht="39.55" customHeight="1">
-      <c r="A11" s="13">
+      <c r="C16" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="18"/>
+      <c r="E16" s="6">
+        <v>1</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="13"/>
+      <c r="I16" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="K16" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B11" t="s" s="14">
+    </row>
+    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
+        <v>9</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C11" t="s" s="14">
+      <c r="C17" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="18"/>
+      <c r="E17" s="9">
+        <v>2</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="13"/>
+      <c r="I17" s="47">
+        <v>1</v>
+      </c>
+      <c r="J17" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="K17" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
+        <v>10</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D11" t="s" s="27">
+      <c r="C18" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="18"/>
+      <c r="E18" s="14">
+        <v>3</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="13"/>
+      <c r="I18" s="47">
+        <v>2</v>
+      </c>
+      <c r="J18" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="K18" s="37">
+        <v>5.99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="9">
+        <v>11</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-    </row>
-    <row r="12" ht="26.55" customHeight="1">
-      <c r="A12" s="7">
+      <c r="C19" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="18"/>
+      <c r="E19" s="9">
+        <v>4</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="I19" s="47">
+        <v>3</v>
+      </c>
+      <c r="J19" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="K19" s="37">
+        <v>7.77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
+        <v>12</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="18"/>
+      <c r="E20" s="3"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
+    </row>
+    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="9">
+        <v>13</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="18"/>
+      <c r="E21" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="F21" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="9">
+        <v>14</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="18"/>
+      <c r="E22" s="6">
+        <v>1</v>
+      </c>
+      <c r="F22" s="8">
+        <v>1</v>
+      </c>
+      <c r="G22" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="9">
+        <v>15</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="18"/>
+      <c r="E23" s="6">
+        <v>2</v>
+      </c>
+      <c r="F23" s="8">
+        <v>1</v>
+      </c>
+      <c r="G23" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="9">
+        <v>16</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="18"/>
+      <c r="E24" s="6">
+        <v>3</v>
+      </c>
+      <c r="F24" s="8">
+        <v>1</v>
+      </c>
+      <c r="G24" s="8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="9">
+        <v>17</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" s="18"/>
+      <c r="E25" s="6">
+        <v>4</v>
+      </c>
+      <c r="F25" s="8">
+        <v>1</v>
+      </c>
+      <c r="G25" s="8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="9">
+        <v>18</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="18"/>
+      <c r="E26" s="6">
         <v>5</v>
       </c>
-      <c r="B12" t="s" s="8">
-        <v>37</v>
-      </c>
-      <c r="C12" t="s" s="8">
-        <v>21</v>
-      </c>
-      <c r="D12" t="s" s="26">
-        <v>38</v>
-      </c>
-      <c r="E12" s="24"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
+      <c r="F26" s="8">
+        <v>2</v>
+      </c>
+      <c r="G26" s="8">
+        <v>13</v>
+      </c>
+      <c r="H26" s="13"/>
+    </row>
+    <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E27" s="6">
+        <v>6</v>
+      </c>
+      <c r="F27" s="8">
+        <v>2</v>
+      </c>
+      <c r="G27" s="8">
+        <v>17</v>
+      </c>
+      <c r="H27" s="13"/>
+    </row>
+    <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E28" s="6">
+        <v>7</v>
+      </c>
+      <c r="F28" s="8">
+        <v>2</v>
+      </c>
+      <c r="G28" s="8">
+        <v>2</v>
+      </c>
+      <c r="H28" s="13"/>
+    </row>
+    <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E29" s="6">
+        <v>8</v>
+      </c>
+      <c r="F29" s="8">
+        <v>2</v>
+      </c>
+      <c r="G29" s="8">
+        <v>15</v>
+      </c>
+      <c r="H29" s="13"/>
+    </row>
+    <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E30" s="6">
+        <v>9</v>
+      </c>
+      <c r="F30" s="8">
+        <v>3</v>
+      </c>
+      <c r="G30" s="8">
+        <v>4</v>
+      </c>
+      <c r="H30" s="13"/>
+    </row>
+    <row r="31" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E31" s="6">
+        <v>10</v>
+      </c>
+      <c r="F31" s="8">
+        <v>3</v>
+      </c>
+      <c r="G31" s="8">
+        <v>16</v>
+      </c>
+      <c r="H31" s="13"/>
+    </row>
+    <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E32" s="6">
+        <v>11</v>
+      </c>
+      <c r="F32" s="8">
+        <v>3</v>
+      </c>
+      <c r="G32" s="8">
+        <v>6</v>
+      </c>
+      <c r="H32" s="13"/>
+    </row>
+    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4"/>
+      <c r="E33" s="6">
+        <v>12</v>
+      </c>
+      <c r="F33" s="8">
+        <v>4</v>
+      </c>
+      <c r="G33" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="4"/>
+      <c r="E34" s="6">
+        <v>13</v>
+      </c>
+      <c r="F34" s="8">
+        <v>4</v>
+      </c>
+      <c r="G34" s="8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="4"/>
+      <c r="E35" s="44">
+        <v>14</v>
+      </c>
+      <c r="F35" s="27">
+        <v>4</v>
+      </c>
+      <c r="G35" s="27">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E36" s="29"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="29"/>
+    </row>
+    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E37" s="28"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="28"/>
+    </row>
+    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E38" s="28"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="28"/>
+    </row>
+    <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E39" s="28"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="28"/>
+    </row>
+    <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E40" s="28"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="28"/>
+    </row>
+    <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="28"/>
+    </row>
+    <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E42" s="28"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/SpotifyClone-Non-NormalizedTable.xlsx
+++ b/SpotifyClone-Non-NormalizedTable.xlsx
@@ -33,9 +33,6 @@
     <t>plano</t>
   </si>
   <si>
-    <t>valor_plano</t>
-  </si>
-  <si>
     <t>Thati</t>
   </si>
   <si>
@@ -171,13 +168,16 @@
     <t>5</t>
   </si>
   <si>
-    <t>reproducoes_id</t>
-  </si>
-  <si>
     <t>seguindo_id</t>
   </si>
   <si>
     <t>plano_id</t>
+  </si>
+  <si>
+    <t>valor</t>
+  </si>
+  <si>
+    <t>reproducao_id</t>
   </si>
 </sst>
 </file>
@@ -217,18 +217,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-        <bgColor auto="1"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -244,7 +238,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="-0.249977111117893"/>
+        <fgColor theme="5" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -330,7 +324,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -341,13 +334,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -381,23 +373,19 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -410,19 +398,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -434,6 +418,16 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1598,770 +1592,770 @@
   <dimension ref="A1:K42"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="29" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="15.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="38.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="22" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" style="1" customWidth="1"/>
     <col min="10" max="10" width="13.5703125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.85546875" style="1" customWidth="1"/>
     <col min="12" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="E1" s="20"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
+      <c r="D1" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="18"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
     </row>
     <row r="2" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="33">
+      <c r="A2" s="29">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="29">
+        <v>23</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="21"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="22"/>
+    </row>
+    <row r="3" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="30">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="30">
+        <v>35</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="21"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="22"/>
+    </row>
+    <row r="4" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="29">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="29">
+        <v>20</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="21"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="22"/>
+    </row>
+    <row r="5" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="30">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="30">
+        <v>45</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="21"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="22"/>
+    </row>
+    <row r="6" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="31"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+    </row>
+    <row r="7" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+    </row>
+    <row r="8" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="15"/>
+      <c r="E8" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="20"/>
+      <c r="I8" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="J8" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="K8" s="42" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>1</v>
+      </c>
+      <c r="B9" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="16"/>
+      <c r="E9" s="5">
+        <v>1</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" s="20"/>
+      <c r="I9" s="39">
+        <v>1</v>
+      </c>
+      <c r="J9" s="7">
+        <v>1</v>
+      </c>
+      <c r="K9" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>2</v>
+      </c>
+      <c r="B10" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="16"/>
+      <c r="E10" s="8">
+        <v>2</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="20"/>
+      <c r="I10" s="39">
+        <v>2</v>
+      </c>
+      <c r="J10" s="7">
+        <v>2</v>
+      </c>
+      <c r="K10" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>3</v>
+      </c>
+      <c r="B11" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="16"/>
+      <c r="E11" s="12">
+        <v>3</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" s="20"/>
+      <c r="I11" s="39">
+        <v>3</v>
+      </c>
+      <c r="J11" s="7">
+        <v>2</v>
+      </c>
+      <c r="K11" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>4</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="16"/>
+      <c r="E12" s="8">
+        <v>4</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" s="20"/>
+      <c r="I12" s="39">
+        <v>4</v>
+      </c>
+      <c r="J12" s="7">
+        <v>3</v>
+      </c>
+      <c r="K12" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
         <v>5</v>
       </c>
-      <c r="C2" s="33">
-        <v>23</v>
-      </c>
-      <c r="D2" s="40" t="s">
+      <c r="B13" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="23"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="24"/>
-    </row>
-    <row r="3" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="34">
-        <v>2</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="34">
-        <v>35</v>
-      </c>
-      <c r="D3" s="41" t="s">
+      <c r="D13" s="16"/>
+      <c r="E13" s="8">
+        <v>5</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" s="5">
+        <v>5</v>
+      </c>
+      <c r="J13" s="7">
+        <v>3</v>
+      </c>
+      <c r="K13" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
+        <v>6</v>
+      </c>
+      <c r="B14" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="23"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="24"/>
-    </row>
-    <row r="4" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="33">
-        <v>3</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="33">
-        <v>20</v>
-      </c>
-      <c r="D4" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" s="23"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="24"/>
-    </row>
-    <row r="5" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="34">
-        <v>4</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="34">
-        <v>45</v>
-      </c>
-      <c r="D5" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="E5" s="23"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="24"/>
-    </row>
-    <row r="6" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="35"/>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-    </row>
-    <row r="7" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="20"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-    </row>
-    <row r="8" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="43" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H8" s="22"/>
-      <c r="I8" s="43" t="s">
-        <v>51</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
-        <v>1</v>
-      </c>
-      <c r="B9" s="42" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="6">
-        <v>1</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="H9" s="22"/>
-      <c r="I9" s="45">
-        <v>1</v>
-      </c>
-      <c r="J9" s="8">
-        <v>1</v>
-      </c>
-      <c r="K9" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
-        <v>2</v>
-      </c>
-      <c r="B10" s="42" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="9">
-        <v>2</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="H10" s="22"/>
-      <c r="I10" s="45">
-        <v>2</v>
-      </c>
-      <c r="J10" s="8">
-        <v>2</v>
-      </c>
-      <c r="K10" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
-        <v>3</v>
-      </c>
-      <c r="B11" s="42" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="14">
-        <v>3</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="H11" s="22"/>
-      <c r="I11" s="45">
-        <v>3</v>
-      </c>
-      <c r="J11" s="8">
-        <v>2</v>
-      </c>
-      <c r="K11" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
-        <v>4</v>
-      </c>
-      <c r="B12" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="18"/>
-      <c r="E12" s="9">
-        <v>4</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="H12" s="22"/>
-      <c r="I12" s="45">
-        <v>4</v>
-      </c>
-      <c r="J12" s="8">
-        <v>3</v>
-      </c>
-      <c r="K12" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="9">
-        <v>5</v>
-      </c>
-      <c r="B13" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="9">
-        <v>5</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="I13" s="6">
-        <v>5</v>
-      </c>
-      <c r="J13" s="8">
-        <v>3</v>
-      </c>
-      <c r="K13" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
-        <v>6</v>
-      </c>
-      <c r="B14" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" s="18"/>
+      <c r="D14" s="16"/>
       <c r="E14" s="3"/>
       <c r="F14" s="4"/>
-      <c r="G14" s="13"/>
-      <c r="I14" s="44">
+      <c r="G14" s="11"/>
+      <c r="I14" s="38">
         <v>6</v>
       </c>
-      <c r="J14" s="27">
+      <c r="J14" s="24">
         <v>4</v>
       </c>
-      <c r="K14" s="27">
+      <c r="K14" s="24">
         <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="9">
+      <c r="A15" s="8">
         <v>7</v>
       </c>
-      <c r="B15" s="42" t="s">
+      <c r="B15" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="16"/>
+      <c r="E15" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="11"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+    </row>
+    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
+        <v>8</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C16" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="16"/>
+      <c r="E16" s="5">
+        <v>1</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="11"/>
+      <c r="I16" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="J16" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="K16" s="42" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
+        <v>9</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="16"/>
+      <c r="E17" s="8">
+        <v>2</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="11"/>
+      <c r="I17" s="41">
+        <v>1</v>
+      </c>
+      <c r="J17" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="K17" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
+        <v>10</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="18"/>
-      <c r="E15" s="43" t="s">
-        <v>44</v>
-      </c>
-      <c r="F15" s="5" t="s">
+      <c r="D18" s="16"/>
+      <c r="E18" s="12">
+        <v>3</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="11"/>
+      <c r="I18" s="41">
+        <v>2</v>
+      </c>
+      <c r="J18" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="K18" s="33">
+        <v>5.99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="8">
+        <v>11</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="16"/>
+      <c r="E19" s="8">
+        <v>4</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="I19" s="41">
+        <v>3</v>
+      </c>
+      <c r="J19" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="K19" s="33">
+        <v>7.77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
+        <v>12</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="16"/>
+      <c r="E20" s="3"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+    </row>
+    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="8">
+        <v>13</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="16"/>
+      <c r="E21" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="G21" s="42" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
+        <v>14</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="16"/>
+      <c r="E22" s="5">
+        <v>1</v>
+      </c>
+      <c r="F22" s="7">
+        <v>1</v>
+      </c>
+      <c r="G22" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="8">
         <v>15</v>
       </c>
-      <c r="G15" s="13"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-    </row>
-    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="9">
+      <c r="B23" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="16"/>
+      <c r="E23" s="5">
+        <v>2</v>
+      </c>
+      <c r="F23" s="7">
+        <v>1</v>
+      </c>
+      <c r="G23" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="8">
+        <v>16</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" s="16"/>
+      <c r="E24" s="5">
+        <v>3</v>
+      </c>
+      <c r="F24" s="7">
+        <v>1</v>
+      </c>
+      <c r="G24" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="8">
+        <v>17</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" s="16"/>
+      <c r="E25" s="5">
+        <v>4</v>
+      </c>
+      <c r="F25" s="7">
+        <v>1</v>
+      </c>
+      <c r="G25" s="7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="8">
+        <v>18</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" s="16"/>
+      <c r="E26" s="5">
+        <v>5</v>
+      </c>
+      <c r="F26" s="7">
+        <v>2</v>
+      </c>
+      <c r="G26" s="7">
+        <v>13</v>
+      </c>
+      <c r="H26" s="11"/>
+    </row>
+    <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E27" s="5">
+        <v>6</v>
+      </c>
+      <c r="F27" s="7">
+        <v>2</v>
+      </c>
+      <c r="G27" s="7">
+        <v>17</v>
+      </c>
+      <c r="H27" s="11"/>
+    </row>
+    <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E28" s="5">
+        <v>7</v>
+      </c>
+      <c r="F28" s="7">
+        <v>2</v>
+      </c>
+      <c r="G28" s="7">
+        <v>2</v>
+      </c>
+      <c r="H28" s="11"/>
+    </row>
+    <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E29" s="5">
         <v>8</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" s="18"/>
-      <c r="E16" s="6">
-        <v>1</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="13"/>
-      <c r="I16" s="43" t="s">
-        <v>52</v>
-      </c>
-      <c r="J16" s="5" t="s">
+      <c r="F29" s="7">
+        <v>2</v>
+      </c>
+      <c r="G29" s="7">
+        <v>15</v>
+      </c>
+      <c r="H29" s="11"/>
+    </row>
+    <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E30" s="5">
+        <v>9</v>
+      </c>
+      <c r="F30" s="7">
         <v>3</v>
       </c>
-      <c r="K16" s="5" t="s">
+      <c r="G30" s="7">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="9">
-        <v>9</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" s="18"/>
-      <c r="E17" s="9">
-        <v>2</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G17" s="13"/>
-      <c r="I17" s="47">
-        <v>1</v>
-      </c>
-      <c r="J17" s="38" t="s">
+      <c r="H30" s="11"/>
+    </row>
+    <row r="31" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E31" s="5">
+        <v>10</v>
+      </c>
+      <c r="F31" s="7">
+        <v>3</v>
+      </c>
+      <c r="G31" s="7">
+        <v>16</v>
+      </c>
+      <c r="H31" s="11"/>
+    </row>
+    <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E32" s="5">
+        <v>11</v>
+      </c>
+      <c r="F32" s="7">
+        <v>3</v>
+      </c>
+      <c r="G32" s="7">
         <v>6</v>
       </c>
-      <c r="K17" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="9">
-        <v>10</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" s="18"/>
-      <c r="E18" s="14">
-        <v>3</v>
-      </c>
-      <c r="F18" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" s="13"/>
-      <c r="I18" s="47">
-        <v>2</v>
-      </c>
-      <c r="J18" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="K18" s="37">
-        <v>5.99</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="9">
-        <v>11</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="18"/>
-      <c r="E19" s="9">
-        <v>4</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="2"/>
-      <c r="I19" s="47">
-        <v>3</v>
-      </c>
-      <c r="J19" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="K19" s="37">
-        <v>7.77</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="9">
-        <v>12</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="D20" s="18"/>
-      <c r="E20" s="3"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
-    </row>
-    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="9">
-        <v>13</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="D21" s="18"/>
-      <c r="E21" s="43" t="s">
-        <v>50</v>
-      </c>
-      <c r="F21" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="9">
-        <v>14</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="D22" s="18"/>
-      <c r="E22" s="6">
-        <v>1</v>
-      </c>
-      <c r="F22" s="8">
-        <v>1</v>
-      </c>
-      <c r="G22" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="9">
-        <v>15</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="D23" s="18"/>
-      <c r="E23" s="6">
-        <v>2</v>
-      </c>
-      <c r="F23" s="8">
-        <v>1</v>
-      </c>
-      <c r="G23" s="8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="9">
-        <v>16</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D24" s="18"/>
-      <c r="E24" s="6">
-        <v>3</v>
-      </c>
-      <c r="F24" s="8">
-        <v>1</v>
-      </c>
-      <c r="G24" s="8">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="9">
-        <v>17</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D25" s="18"/>
-      <c r="E25" s="6">
-        <v>4</v>
-      </c>
-      <c r="F25" s="8">
-        <v>1</v>
-      </c>
-      <c r="G25" s="8">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="9">
-        <v>18</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D26" s="18"/>
-      <c r="E26" s="6">
-        <v>5</v>
-      </c>
-      <c r="F26" s="8">
-        <v>2</v>
-      </c>
-      <c r="G26" s="8">
-        <v>13</v>
-      </c>
-      <c r="H26" s="13"/>
-    </row>
-    <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E27" s="6">
-        <v>6</v>
-      </c>
-      <c r="F27" s="8">
-        <v>2</v>
-      </c>
-      <c r="G27" s="8">
-        <v>17</v>
-      </c>
-      <c r="H27" s="13"/>
-    </row>
-    <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E28" s="6">
-        <v>7</v>
-      </c>
-      <c r="F28" s="8">
-        <v>2</v>
-      </c>
-      <c r="G28" s="8">
-        <v>2</v>
-      </c>
-      <c r="H28" s="13"/>
-    </row>
-    <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E29" s="6">
-        <v>8</v>
-      </c>
-      <c r="F29" s="8">
-        <v>2</v>
-      </c>
-      <c r="G29" s="8">
-        <v>15</v>
-      </c>
-      <c r="H29" s="13"/>
-    </row>
-    <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E30" s="6">
-        <v>9</v>
-      </c>
-      <c r="F30" s="8">
-        <v>3</v>
-      </c>
-      <c r="G30" s="8">
-        <v>4</v>
-      </c>
-      <c r="H30" s="13"/>
-    </row>
-    <row r="31" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E31" s="6">
-        <v>10</v>
-      </c>
-      <c r="F31" s="8">
-        <v>3</v>
-      </c>
-      <c r="G31" s="8">
-        <v>16</v>
-      </c>
-      <c r="H31" s="13"/>
-    </row>
-    <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E32" s="6">
-        <v>11</v>
-      </c>
-      <c r="F32" s="8">
-        <v>3</v>
-      </c>
-      <c r="G32" s="8">
-        <v>6</v>
-      </c>
-      <c r="H32" s="13"/>
+      <c r="H32" s="11"/>
     </row>
     <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
-      <c r="E33" s="6">
+      <c r="E33" s="5">
         <v>12</v>
       </c>
-      <c r="F33" s="8">
+      <c r="F33" s="7">
         <v>4</v>
       </c>
-      <c r="G33" s="8">
+      <c r="G33" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
-      <c r="E34" s="6">
+      <c r="E34" s="5">
         <v>13</v>
       </c>
-      <c r="F34" s="8">
+      <c r="F34" s="7">
         <v>4</v>
       </c>
-      <c r="G34" s="8">
+      <c r="G34" s="7">
         <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
-      <c r="E35" s="44">
+      <c r="E35" s="38">
         <v>14</v>
       </c>
-      <c r="F35" s="27">
+      <c r="F35" s="24">
         <v>4</v>
       </c>
-      <c r="G35" s="27">
+      <c r="G35" s="24">
         <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="29"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
     </row>
     <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E37" s="28"/>
-      <c r="F37" s="28"/>
-      <c r="G37" s="28"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="25"/>
     </row>
     <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E38" s="28"/>
-      <c r="F38" s="28"/>
-      <c r="G38" s="28"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="25"/>
     </row>
     <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E39" s="28"/>
-      <c r="F39" s="28"/>
-      <c r="G39" s="28"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
     </row>
     <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E40" s="28"/>
-      <c r="F40" s="28"/>
-      <c r="G40" s="28"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="25"/>
     </row>
     <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E41" s="28"/>
-      <c r="F41" s="28"/>
-      <c r="G41" s="28"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="25"/>
     </row>
     <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E42" s="28"/>
-      <c r="F42" s="28"/>
-      <c r="G42" s="28"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SpotifyClone-Non-NormalizedTable.xlsx
+++ b/SpotifyClone-Non-NormalizedTable.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="81">
   <si>
     <t xml:space="preserve">users</t>
   </si>
@@ -44,7 +44,7 @@
     <t xml:space="preserve">plan_id</t>
   </si>
   <si>
-    <t xml:space="preserve">album</t>
+    <t xml:space="preserve">album_name</t>
   </si>
   <si>
     <t xml:space="preserve">artist_id</t>
@@ -256,6 +256,9 @@
   </si>
   <si>
     <t xml:space="preserve">"Dance With Her Own", "Without My Streets", "Celebration Of More"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">album</t>
   </si>
   <si>
     <t xml:space="preserve">artista</t>
@@ -798,8 +801,8 @@
   </sheetPr>
   <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K10" activeCellId="0" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1258,7 +1261,7 @@
         <v>4</v>
       </c>
       <c r="K15" s="26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1613,8 +1616,8 @@
   </sheetPr>
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I4" activeCellId="0" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1782,13 +1785,13 @@
         <v>40</v>
       </c>
       <c r="B7" s="55" t="s">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="C7" s="55" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D7" s="55" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E7" s="36"/>
       <c r="F7" s="30"/>
@@ -1807,7 +1810,7 @@
         <v>31</v>
       </c>
       <c r="D8" s="67" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E8" s="36"/>
       <c r="F8" s="30"/>
@@ -1826,7 +1829,7 @@
         <v>31</v>
       </c>
       <c r="D9" s="51" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E9" s="30"/>
       <c r="F9" s="30"/>
@@ -1845,7 +1848,7 @@
         <v>33</v>
       </c>
       <c r="D10" s="67" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E10" s="36"/>
       <c r="F10" s="30"/>
@@ -1864,7 +1867,7 @@
         <v>35</v>
       </c>
       <c r="D11" s="51" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E11" s="30"/>
       <c r="F11" s="30"/>
@@ -1883,7 +1886,7 @@
         <v>37</v>
       </c>
       <c r="D12" s="67" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E12" s="36"/>
       <c r="F12" s="30"/>

--- a/SpotifyClone-Non-NormalizedTable.xlsx
+++ b/SpotifyClone-Non-NormalizedTable.xlsx
@@ -1592,7 +1592,7 @@
   <dimension ref="A1:K42"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1811,14 +1811,14 @@
         <v>44</v>
       </c>
       <c r="H10" s="20"/>
-      <c r="I10" s="39">
+      <c r="I10" s="5">
         <v>2</v>
       </c>
       <c r="J10" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K10" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1842,11 +1842,11 @@
         <v>45</v>
       </c>
       <c r="H11" s="20"/>
-      <c r="I11" s="39">
+      <c r="I11" s="5">
         <v>3</v>
       </c>
       <c r="J11" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K11" s="7">
         <v>3</v>
@@ -1877,10 +1877,10 @@
         <v>4</v>
       </c>
       <c r="J12" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K12" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1903,14 +1903,14 @@
       <c r="G13" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I13" s="39">
         <v>5</v>
       </c>
       <c r="J13" s="7">
+        <v>2</v>
+      </c>
+      <c r="K13" s="7">
         <v>3</v>
-      </c>
-      <c r="K13" s="7">
-        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1927,14 +1927,14 @@
       <c r="E14" s="3"/>
       <c r="F14" s="4"/>
       <c r="G14" s="11"/>
-      <c r="I14" s="38">
+      <c r="I14" s="39">
         <v>6</v>
       </c>
-      <c r="J14" s="24">
-        <v>4</v>
-      </c>
-      <c r="K14" s="24">
-        <v>4</v>
+      <c r="J14" s="7">
+        <v>3</v>
+      </c>
+      <c r="K14" s="7">
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1955,9 +1955,15 @@
         <v>14</v>
       </c>
       <c r="G15" s="11"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
+      <c r="I15" s="5">
+        <v>7</v>
+      </c>
+      <c r="J15" s="7">
+        <v>3</v>
+      </c>
+      <c r="K15" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
@@ -1977,14 +1983,14 @@
         <v>16</v>
       </c>
       <c r="G16" s="11"/>
-      <c r="I16" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="J16" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="K16" s="42" t="s">
-        <v>51</v>
+      <c r="I16" s="38">
+        <v>8</v>
+      </c>
+      <c r="J16" s="24">
+        <v>4</v>
+      </c>
+      <c r="K16" s="24">
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2005,15 +2011,9 @@
         <v>19</v>
       </c>
       <c r="G17" s="11"/>
-      <c r="I17" s="41">
-        <v>1</v>
-      </c>
-      <c r="J17" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="K17" s="33">
-        <v>0</v>
-      </c>
+      <c r="I17" s="40"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
     </row>
     <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
@@ -2033,14 +2033,14 @@
         <v>21</v>
       </c>
       <c r="G18" s="11"/>
-      <c r="I18" s="41">
-        <v>2</v>
-      </c>
-      <c r="J18" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="K18" s="33">
-        <v>5.99</v>
+      <c r="I18" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="J18" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="K18" s="42" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2062,13 +2062,13 @@
       </c>
       <c r="G19" s="2"/>
       <c r="I19" s="41">
-        <v>3</v>
-      </c>
-      <c r="J19" s="33" t="s">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="J19" s="34" t="s">
+        <v>5</v>
       </c>
       <c r="K19" s="33">
-        <v>7.77</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2083,9 +2083,15 @@
       </c>
       <c r="D20" s="16"/>
       <c r="E20" s="3"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="25"/>
+      <c r="I20" s="41">
+        <v>2</v>
+      </c>
+      <c r="J20" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="K20" s="33">
+        <v>5.99</v>
+      </c>
     </row>
     <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
@@ -2106,6 +2112,15 @@
       </c>
       <c r="G21" s="42" t="s">
         <v>23</v>
+      </c>
+      <c r="I21" s="41">
+        <v>3</v>
+      </c>
+      <c r="J21" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="K21" s="33">
+        <v>7.77</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">

--- a/SpotifyClone-Non-NormalizedTable.xlsx
+++ b/SpotifyClone-Non-NormalizedTable.xlsx
@@ -1,17 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView windowWidth="24000" windowHeight="9810"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="43">
   <si>
     <t>usuario_id</t>
   </si>
@@ -22,97 +25,109 @@
     <t>idade</t>
   </si>
   <si>
+    <t>plano_id</t>
+  </si>
+  <si>
+    <t>historico_de_reproducoes</t>
+  </si>
+  <si>
+    <t>seguindo_artistas</t>
+  </si>
+  <si>
+    <t>Thati</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>"Soul For Us", "Magic Circus", "Diamond Power", "Thang Of Thunder"</t>
+  </si>
+  <si>
+    <t>Walter Phoenix, Freedie Shannon, Lance Day</t>
+  </si>
+  <si>
+    <t>Cintia</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>"Home Forever", "Words Of Her Life", "Reflections Of Magic", "Honey, Let's Be Silly"</t>
+  </si>
+  <si>
+    <t>Walter Phoenix, Lance Day</t>
+  </si>
+  <si>
+    <t>Bill</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>"Troubles Of My Inner Fire", "Thang Of Thunder", "Magic Circus"</t>
+  </si>
+  <si>
+    <t>Peter Strong, Walter Phoenix,</t>
+  </si>
+  <si>
+    <t>Roger</t>
+  </si>
+  <si>
+    <t>"Dance With Her Own", "Without My Streets", "Celebration Of More"</t>
+  </si>
+  <si>
+    <t>Freedie Shannon</t>
+  </si>
+  <si>
+    <t>album_id</t>
+  </si>
+  <si>
+    <t>album</t>
+  </si>
+  <si>
+    <t>artista</t>
+  </si>
+  <si>
+    <t>cancoes</t>
+  </si>
+  <si>
     <t>plano</t>
   </si>
   <si>
     <t>valor_plano</t>
   </si>
   <si>
-    <t>historico_de_reproducoes</t>
-  </si>
-  <si>
-    <t>seguindo_artistas</t>
-  </si>
-  <si>
-    <t>Thati</t>
+    <t>Envious</t>
+  </si>
+  <si>
+    <t>Walter Phoenix</t>
+  </si>
+  <si>
+    <t>"Soul For Us", "Reflections Of Magic", "Dance With Her Own"</t>
   </si>
   <si>
     <t>gratuito</t>
   </si>
   <si>
-    <t>"Soul For Us", "Magic Circus", "Diamond Power", "Thang Of Thunder"</t>
-  </si>
-  <si>
-    <t>Walter Phoenix, Freedie Shannon, Lance Day</t>
-  </si>
-  <si>
-    <t>Cintia</t>
+    <t>Exuberant</t>
+  </si>
+  <si>
+    <t>"Troubles Of My Inner Fire", "Time Fireworks"</t>
   </si>
   <si>
     <t>familiar</t>
   </si>
   <si>
-    <t>"Home Forever", "Words Of Her Life", "Reflections Of Magic", "Honey, Let's Be Silly"</t>
-  </si>
-  <si>
-    <t>Walter Phoenix, Lance Day</t>
-  </si>
-  <si>
-    <t>Bill</t>
+    <t>Hallowed Steam</t>
+  </si>
+  <si>
+    <t>Peter Strong</t>
+  </si>
+  <si>
+    <t>"Magic Circus", "Honey, So Do I", "Sweetie, Let's Go Wild", "She Knows"</t>
   </si>
   <si>
     <t>universitário</t>
-  </si>
-  <si>
-    <t>"Troubles Of My Inner Fire", "Thang Of Thunder", "Magic Circus"</t>
-  </si>
-  <si>
-    <t>Peter Strong, Walter Phoenix,</t>
-  </si>
-  <si>
-    <t>Roger</t>
-  </si>
-  <si>
-    <t>"Dance With Her Own", "Without My Streets", "Celebration Of More"</t>
-  </si>
-  <si>
-    <t>Freedie Shannon</t>
-  </si>
-  <si>
-    <t>album_id</t>
-  </si>
-  <si>
-    <t>album</t>
-  </si>
-  <si>
-    <t>artista</t>
-  </si>
-  <si>
-    <t>cancoes</t>
-  </si>
-  <si>
-    <t>Envious</t>
-  </si>
-  <si>
-    <t>Walter Phoenix</t>
-  </si>
-  <si>
-    <t>"Soul For Us", "Reflections Of Magic", "Dance With Her Own"</t>
-  </si>
-  <si>
-    <t>Exuberant</t>
-  </si>
-  <si>
-    <t>"Troubles Of My Inner Fire", "Time Fireworks"</t>
-  </si>
-  <si>
-    <t>Hallowed Steam</t>
-  </si>
-  <si>
-    <t>Peter Strong</t>
-  </si>
-  <si>
-    <t>"Magic Circus", "Honey, So Do I", "Sweetie, Let's Go Wild", "She Knows"</t>
   </si>
   <si>
     <t>Incandescent</t>
@@ -134,33 +149,179 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="11"/>
       <color indexed="9"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -170,23 +331,209 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="10"/>
-        <bgColor auto="1"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="13"/>
-        <bgColor auto="1"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="9"/>
-        <bgColor auto="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -362,126 +709,450 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="28">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
+    <cellStyle name="40% - Ênfase 4" xfId="3" builtinId="43"/>
+    <cellStyle name="Porcentagem" xfId="4" builtinId="5"/>
+    <cellStyle name="Célula Vinculada" xfId="5" builtinId="24"/>
+    <cellStyle name="Célula de Verificação" xfId="6" builtinId="23"/>
+    <cellStyle name="Moeda [0]" xfId="7" builtinId="7"/>
+    <cellStyle name="20% - Ênfase 3" xfId="8" builtinId="38"/>
+    <cellStyle name="Moeda" xfId="9" builtinId="4"/>
+    <cellStyle name="Hyperlink seguido" xfId="10" builtinId="9"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8"/>
+    <cellStyle name="40% - Ênfase 2" xfId="12" builtinId="35"/>
+    <cellStyle name="Observação" xfId="13" builtinId="10"/>
+    <cellStyle name="40% - Ênfase 6" xfId="14" builtinId="51"/>
+    <cellStyle name="Texto de Aviso" xfId="15" builtinId="11"/>
+    <cellStyle name="Título" xfId="16" builtinId="15"/>
+    <cellStyle name="Texto Explicativo" xfId="17" builtinId="53"/>
+    <cellStyle name="Ênfase 3" xfId="18" builtinId="37"/>
+    <cellStyle name="Título 1" xfId="19" builtinId="16"/>
+    <cellStyle name="Ênfase 4" xfId="20" builtinId="41"/>
+    <cellStyle name="Título 2" xfId="21" builtinId="17"/>
+    <cellStyle name="Ênfase 5" xfId="22" builtinId="45"/>
+    <cellStyle name="Título 3" xfId="23" builtinId="18"/>
+    <cellStyle name="Ênfase 6" xfId="24" builtinId="49"/>
+    <cellStyle name="Título 4" xfId="25" builtinId="19"/>
+    <cellStyle name="Entrada" xfId="26" builtinId="20"/>
+    <cellStyle name="Saída" xfId="27" builtinId="21"/>
+    <cellStyle name="Cálculo" xfId="28" builtinId="22"/>
+    <cellStyle name="Total" xfId="29" builtinId="25"/>
+    <cellStyle name="40% - Ênfase 1" xfId="30" builtinId="31"/>
+    <cellStyle name="Bom" xfId="31" builtinId="26"/>
+    <cellStyle name="Ruim" xfId="32" builtinId="27"/>
+    <cellStyle name="Neutro" xfId="33" builtinId="28"/>
+    <cellStyle name="20% - Ênfase 5" xfId="34" builtinId="46"/>
+    <cellStyle name="Ênfase 1" xfId="35" builtinId="29"/>
+    <cellStyle name="20% - Ênfase 1" xfId="36" builtinId="30"/>
+    <cellStyle name="60% - Ênfase 1" xfId="37" builtinId="32"/>
+    <cellStyle name="20% - Ênfase 6" xfId="38" builtinId="50"/>
+    <cellStyle name="Ênfase 2" xfId="39" builtinId="33"/>
+    <cellStyle name="20% - Ênfase 2" xfId="40" builtinId="34"/>
+    <cellStyle name="60% - Ênfase 2" xfId="41" builtinId="36"/>
+    <cellStyle name="40% - Ênfase 3" xfId="42" builtinId="39"/>
+    <cellStyle name="60% - Ênfase 3" xfId="43" builtinId="40"/>
+    <cellStyle name="20% - Ênfase 4" xfId="44" builtinId="42"/>
+    <cellStyle name="60% - Ênfase 4" xfId="45" builtinId="44"/>
+    <cellStyle name="40% - Ênfase 5" xfId="46" builtinId="47"/>
+    <cellStyle name="60% - Ênfase 5" xfId="47" builtinId="48"/>
+    <cellStyle name="60% - Ênfase 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ff4472c4"/>
-      <rgbColor rgb="ff8eaadb"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ffd9e2f3"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="004472C4"/>
+      <rgbColor rgb="008EAADB"/>
+      <rgbColor rgb="00AAAAAA"/>
+      <rgbColor rgb="00D9E2F3"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -680,8 +1351,6 @@
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
@@ -701,8 +1370,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -731,8 +1399,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -757,8 +1424,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -783,8 +1449,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -809,8 +1474,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -835,8 +1499,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -861,8 +1524,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -887,8 +1549,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -913,8 +1574,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -939,8 +1599,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -953,9 +1612,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -969,8 +1634,6 @@
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:noAutofit/>
@@ -990,8 +1653,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1016,8 +1678,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1042,8 +1703,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1068,8 +1728,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1094,8 +1753,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1120,8 +1778,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1146,8 +1803,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1172,8 +1828,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1198,8 +1853,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1224,8 +1878,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1238,9 +1891,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1251,8 +1910,6 @@
           <a:noFill/>
           <a:miter lim="400000"/>
         </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
@@ -1272,8 +1929,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1302,8 +1958,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1328,8 +1983,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1354,8 +2008,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1380,8 +2033,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1406,8 +2058,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1432,8 +2083,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1458,8 +2108,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1484,8 +2133,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1510,8 +2158,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1524,9 +2171,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
@@ -1535,161 +2188,149 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10.3516" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.4688" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.6719" style="1" customWidth="1"/>
-    <col min="4" max="4" width="35.1406" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.35" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.4666666666667" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.675" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="29.75" style="1" customWidth="1"/>
     <col min="6" max="6" width="38.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.3516" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.35" style="1" customWidth="1"/>
     <col min="8" max="8" width="22.5" style="1" customWidth="1"/>
     <col min="9" max="9" width="24" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.85156" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.85" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="31.5" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" ht="31.5" customHeight="1" spans="1:8">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="3">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="3">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="3">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="4">
+      <c r="F1" s="5"/>
+      <c r="G1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5"/>
-      <c r="H1" t="s" s="4">
-        <v>0</v>
-      </c>
-      <c r="I1" t="s" s="6">
-        <v>6</v>
-      </c>
     </row>
-    <row r="2" ht="30" customHeight="1">
+    <row r="2" ht="30" customHeight="1" spans="1:8">
       <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="8">
-        <v>7</v>
+      <c r="B2" s="8" t="s">
+        <v>6</v>
       </c>
       <c r="C2" s="9">
         <v>23</v>
       </c>
-      <c r="D2" t="s" s="8">
+      <c r="D2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="9">
-        <v>0</v>
-      </c>
-      <c r="F2" t="s" s="10">
+      <c r="F2" s="5"/>
+      <c r="G2" s="11">
+        <v>1</v>
+      </c>
+      <c r="H2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="11">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s" s="12">
-        <v>10</v>
-      </c>
     </row>
-    <row r="3" ht="45" customHeight="1">
+    <row r="3" ht="45" customHeight="1" spans="1:8">
       <c r="A3" s="13">
         <v>2</v>
       </c>
-      <c r="B3" t="s" s="14">
-        <v>11</v>
+      <c r="B3" s="14" t="s">
+        <v>10</v>
       </c>
       <c r="C3" s="15">
         <v>35</v>
       </c>
-      <c r="D3" t="s" s="14">
+      <c r="D3" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="15">
-        <v>7.99</v>
-      </c>
-      <c r="F3" t="s" s="16">
+      <c r="F3" s="17"/>
+      <c r="G3" s="18">
+        <v>2</v>
+      </c>
+      <c r="H3" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="17"/>
-      <c r="H3" s="18">
-        <v>2</v>
-      </c>
-      <c r="I3" t="s" s="19">
-        <v>14</v>
-      </c>
     </row>
-    <row r="4" ht="31.5" customHeight="1">
+    <row r="4" ht="31.5" customHeight="1" spans="1:8">
       <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" t="s" s="8">
-        <v>15</v>
+      <c r="B4" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C4" s="9">
         <v>20</v>
       </c>
-      <c r="D4" t="s" s="8">
+      <c r="D4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="9">
-        <v>5.99</v>
-      </c>
-      <c r="F4" t="s" s="10">
+      <c r="F4" s="5"/>
+      <c r="G4" s="11">
+        <v>3</v>
+      </c>
+      <c r="H4" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="11">
-        <v>3</v>
-      </c>
-      <c r="I4" t="s" s="12">
-        <v>18</v>
-      </c>
     </row>
-    <row r="5" ht="39" customHeight="1">
+    <row r="5" ht="39" customHeight="1" spans="1:8">
       <c r="A5" s="13">
         <v>4</v>
       </c>
-      <c r="B5" t="s" s="14">
-        <v>19</v>
+      <c r="B5" s="14" t="s">
+        <v>18</v>
       </c>
       <c r="C5" s="15">
         <v>45</v>
       </c>
-      <c r="D5" t="s" s="14">
-        <v>8</v>
-      </c>
-      <c r="E5" s="15">
-        <v>0</v>
-      </c>
-      <c r="F5" t="s" s="16">
+      <c r="D5" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="17"/>
+      <c r="G5" s="18">
+        <v>4</v>
+      </c>
+      <c r="H5" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="17"/>
-      <c r="H5" s="18">
-        <v>4</v>
-      </c>
-      <c r="I5" t="s" s="19">
-        <v>21</v>
-      </c>
     </row>
-    <row r="6" ht="38.1" customHeight="1">
+    <row r="6" ht="38.1" customHeight="1" spans="1:9">
       <c r="A6" s="20"/>
       <c r="B6" s="20"/>
       <c r="C6" s="20"/>
@@ -1700,123 +2341,150 @@
       <c r="H6" s="23"/>
       <c r="I6" s="23"/>
     </row>
-    <row r="7" ht="13.55" customHeight="1">
-      <c r="A7" t="s" s="2">
+    <row r="7" ht="13.55" customHeight="1" spans="1:10">
+      <c r="A7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s" s="3">
+      <c r="C7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s" s="3">
+      <c r="D7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s" s="3">
+      <c r="E7" s="24"/>
+      <c r="F7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="24"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
     </row>
-    <row r="8" ht="26.55" customHeight="1">
+    <row r="8" ht="26.55" customHeight="1" spans="1:10">
       <c r="A8" s="7">
         <v>1</v>
       </c>
-      <c r="B8" t="s" s="8">
-        <v>26</v>
-      </c>
-      <c r="C8" t="s" s="8">
+      <c r="B8" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D8" t="s" s="26">
+      <c r="C8" s="8" t="s">
         <v>28</v>
       </c>
+      <c r="D8" s="25" t="s">
+        <v>29</v>
+      </c>
       <c r="E8" s="24"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
+      <c r="F8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="9">
+        <v>0</v>
+      </c>
       <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
     </row>
-    <row r="9" ht="13.55" customHeight="1">
+    <row r="9" ht="13.55" customHeight="1" spans="1:10">
       <c r="A9" s="13">
         <v>2</v>
       </c>
-      <c r="B9" t="s" s="14">
-        <v>29</v>
-      </c>
-      <c r="C9" t="s" s="14">
-        <v>27</v>
-      </c>
-      <c r="D9" t="s" s="27">
-        <v>30</v>
-      </c>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
+      <c r="B9" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="27"/>
+      <c r="F9" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="15">
+        <v>7.99</v>
+      </c>
       <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
     </row>
-    <row r="10" ht="26.55" customHeight="1">
+    <row r="10" ht="26.55" customHeight="1" spans="1:10">
       <c r="A10" s="7">
         <v>3</v>
       </c>
-      <c r="B10" t="s" s="8">
-        <v>31</v>
-      </c>
-      <c r="C10" t="s" s="8">
-        <v>32</v>
-      </c>
-      <c r="D10" t="s" s="26">
-        <v>33</v>
+      <c r="B10" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>36</v>
       </c>
       <c r="E10" s="24"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
+      <c r="F10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" s="9">
+        <v>5.99</v>
+      </c>
       <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
     </row>
-    <row r="11" ht="39.55" customHeight="1">
+    <row r="11" ht="39.55" customHeight="1" spans="1:10">
       <c r="A11" s="13">
         <v>4</v>
       </c>
-      <c r="B11" t="s" s="14">
-        <v>34</v>
-      </c>
-      <c r="C11" t="s" s="14">
-        <v>35</v>
-      </c>
-      <c r="D11" t="s" s="27">
-        <v>36</v>
-      </c>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
+      <c r="B11" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="27"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="15"/>
       <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
     </row>
-    <row r="12" ht="26.55" customHeight="1">
+    <row r="12" ht="26.55" customHeight="1" spans="1:9">
       <c r="A12" s="7">
         <v>5</v>
       </c>
-      <c r="B12" t="s" s="8">
-        <v>37</v>
-      </c>
-      <c r="C12" t="s" s="8">
-        <v>21</v>
-      </c>
-      <c r="D12" t="s" s="26">
-        <v>38</v>
+      <c r="B12" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>42</v>
       </c>
       <c r="E12" s="24"/>
-      <c r="F12" s="25"/>
+      <c r="F12" s="27"/>
       <c r="G12" s="22"/>
       <c r="H12" s="22"/>
       <c r="I12" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/SpotifyClone-Non-NormalizedTable.xlsx
+++ b/SpotifyClone-Non-NormalizedTable.xlsx
@@ -4,17 +4,24 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24000" windowHeight="9810"/>
+    <workbookView windowWidth="16635" windowHeight="7875" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="plano" sheetId="2" r:id="rId2"/>
+    <sheet name="usuario" sheetId="3" r:id="rId3"/>
+    <sheet name="artista" sheetId="4" r:id="rId4"/>
+    <sheet name="album" sheetId="5" r:id="rId5"/>
+    <sheet name="cancoes" sheetId="6" r:id="rId6"/>
+    <sheet name="historico_de_reproducoes" sheetId="7" r:id="rId7"/>
+    <sheet name="seguindo_artistas" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="69">
   <si>
     <t>usuario_id</t>
   </si>
@@ -25,124 +32,202 @@
     <t>idade</t>
   </si>
   <si>
+    <t>plano</t>
+  </si>
+  <si>
+    <t>valor_plano</t>
+  </si>
+  <si>
+    <t>historico_de_reproducoes</t>
+  </si>
+  <si>
+    <t>seguindo_artistas</t>
+  </si>
+  <si>
+    <t>Thati</t>
+  </si>
+  <si>
+    <t>gratuito</t>
+  </si>
+  <si>
+    <t>"Soul For Us", "Magic Circus", "Diamond Power", "Thang Of Thunder"</t>
+  </si>
+  <si>
+    <t>Walter Phoenix, Freedie Shannon, Lance Day</t>
+  </si>
+  <si>
+    <t>Cintia</t>
+  </si>
+  <si>
+    <t>familiar</t>
+  </si>
+  <si>
+    <t>"Home Forever", "Words Of Her Life", "Reflections Of Magic", "Honey, Let's Be Silly"</t>
+  </si>
+  <si>
+    <t>Walter Phoenix, Lance Day</t>
+  </si>
+  <si>
+    <t>Bill</t>
+  </si>
+  <si>
+    <t>universitário</t>
+  </si>
+  <si>
+    <t>"Troubles Of My Inner Fire", "Thang Of Thunder", "Magic Circus"</t>
+  </si>
+  <si>
+    <t>Peter Strong, Walter Phoenix,</t>
+  </si>
+  <si>
+    <t>Roger</t>
+  </si>
+  <si>
+    <t>"Dance With Her Own", "Without My Streets", "Celebration Of More"</t>
+  </si>
+  <si>
+    <t>Freedie Shannon</t>
+  </si>
+  <si>
+    <t>album_id</t>
+  </si>
+  <si>
+    <t>album</t>
+  </si>
+  <si>
+    <t>artista</t>
+  </si>
+  <si>
+    <t>cancoes</t>
+  </si>
+  <si>
+    <t>Envious</t>
+  </si>
+  <si>
+    <t>Walter Phoenix</t>
+  </si>
+  <si>
+    <t>"Soul For Us", "Reflections Of Magic", "Dance With Her Own"</t>
+  </si>
+  <si>
+    <t>Exuberant</t>
+  </si>
+  <si>
+    <t>"Troubles Of My Inner Fire", "Time Fireworks"</t>
+  </si>
+  <si>
+    <t>Hallowed Steam</t>
+  </si>
+  <si>
+    <t>Peter Strong</t>
+  </si>
+  <si>
+    <t>"Magic Circus", "Honey, So Do I", "Sweetie, Let's Go Wild", "She Knows"</t>
+  </si>
+  <si>
+    <t>Incandescent</t>
+  </si>
+  <si>
+    <t>Lance Day</t>
+  </si>
+  <si>
+    <t>"Fantasy For Me", "Celebration Of More", "Rock His Everything", "Home Forever", "Diamond Power", "Honey, Let's Be Silly"</t>
+  </si>
+  <si>
+    <t>Temporary Culture</t>
+  </si>
+  <si>
+    <t>"Thang Of Thunder", "Words Of Her Life", "Without My Streets"</t>
+  </si>
+  <si>
     <t>plano_id</t>
   </si>
   <si>
-    <t>historico_de_reproducoes</t>
-  </si>
-  <si>
-    <t>seguindo_artistas</t>
-  </si>
-  <si>
-    <t>Thati</t>
+    <t>nome</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>"Soul For Us", "Magic Circus", "Diamond Power", "Thang Of Thunder"</t>
-  </si>
-  <si>
-    <t>Walter Phoenix, Freedie Shannon, Lance Day</t>
-  </si>
-  <si>
-    <t>Cintia</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
-    <t>"Home Forever", "Words Of Her Life", "Reflections Of Magic", "Honey, Let's Be Silly"</t>
-  </si>
-  <si>
-    <t>Walter Phoenix, Lance Day</t>
-  </si>
-  <si>
-    <t>Bill</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
-    <t>"Troubles Of My Inner Fire", "Thang Of Thunder", "Magic Circus"</t>
-  </si>
-  <si>
-    <t>Peter Strong, Walter Phoenix,</t>
-  </si>
-  <si>
-    <t>Roger</t>
-  </si>
-  <si>
-    <t>"Dance With Her Own", "Without My Streets", "Celebration Of More"</t>
-  </si>
-  <si>
-    <t>Freedie Shannon</t>
-  </si>
-  <si>
-    <t>album_id</t>
-  </si>
-  <si>
-    <t>album</t>
-  </si>
-  <si>
-    <t>artista</t>
-  </si>
-  <si>
-    <t>cancoes</t>
-  </si>
-  <si>
-    <t>plano</t>
-  </si>
-  <si>
-    <t>valor_plano</t>
-  </si>
-  <si>
-    <t>Envious</t>
-  </si>
-  <si>
-    <t>Walter Phoenix</t>
-  </si>
-  <si>
-    <t>"Soul For Us", "Reflections Of Magic", "Dance With Her Own"</t>
-  </si>
-  <si>
-    <t>gratuito</t>
-  </si>
-  <si>
-    <t>Exuberant</t>
-  </si>
-  <si>
-    <t>"Troubles Of My Inner Fire", "Time Fireworks"</t>
-  </si>
-  <si>
-    <t>familiar</t>
-  </si>
-  <si>
-    <t>Hallowed Steam</t>
-  </si>
-  <si>
-    <t>Peter Strong</t>
-  </si>
-  <si>
-    <t>"Magic Circus", "Honey, So Do I", "Sweetie, Let's Go Wild", "She Knows"</t>
-  </si>
-  <si>
-    <t>universitário</t>
-  </si>
-  <si>
-    <t>Incandescent</t>
-  </si>
-  <si>
-    <t>Lance Day</t>
-  </si>
-  <si>
-    <t>"Fantasy For Me", "Celebration Of More", "Rock His Everything", "Home Forever", "Diamond Power", "Honey, Let's Be Silly"</t>
-  </si>
-  <si>
-    <t>Temporary Culture</t>
-  </si>
-  <si>
-    <t>"Thang Of Thunder", "Words Of Her Life", "Without My Streets"</t>
+    <t>FK_plano_id</t>
+  </si>
+  <si>
+    <t>artista_id</t>
+  </si>
+  <si>
+    <t>FK_artista_id</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>cancoes_id</t>
+  </si>
+  <si>
+    <t>Soul For Us'</t>
+  </si>
+  <si>
+    <t>Reflections Of Magic'</t>
+  </si>
+  <si>
+    <t>Dance With Her Own'</t>
+  </si>
+  <si>
+    <t>Troubles Of My Inner Fire'</t>
+  </si>
+  <si>
+    <t>Time Fireworks'</t>
+  </si>
+  <si>
+    <t>Magic Circus'</t>
+  </si>
+  <si>
+    <t>Honey, So Do I'</t>
+  </si>
+  <si>
+    <t>"Sweetie, Let's Go Wild'</t>
+  </si>
+  <si>
+    <t>She Knows'</t>
+  </si>
+  <si>
+    <t>Fantasy For Me'</t>
+  </si>
+  <si>
+    <t>Celebration Of More'</t>
+  </si>
+  <si>
+    <t>Rock His Everything'</t>
+  </si>
+  <si>
+    <t>Home Forever'</t>
+  </si>
+  <si>
+    <t>Diamond Power'</t>
+  </si>
+  <si>
+    <t>"Honey, Let's Be Silly"</t>
+  </si>
+  <si>
+    <t>Thang Of Thunder'</t>
+  </si>
+  <si>
+    <t>Words Of Her Life'</t>
+  </si>
+  <si>
+    <t>Without My Streets'</t>
+  </si>
+  <si>
+    <t>FK_usuario_id</t>
+  </si>
+  <si>
+    <t>FK_cancoes_id</t>
   </si>
 </sst>
 </file>
@@ -150,9 +235,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="22">
@@ -170,6 +255,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Helvetica Neue"/>
@@ -178,22 +270,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -215,6 +299,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
@@ -222,23 +345,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -252,9 +369,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -276,50 +393,18 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -348,7 +433,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -360,180 +613,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="21">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -557,47 +642,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="12"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
       <top style="thin">
         <color indexed="11"/>
       </top>
@@ -633,6 +677,47 @@
       </top>
       <bottom style="thin">
         <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="12"/>
       </bottom>
       <diagonal/>
     </border>
@@ -710,6 +795,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -729,7 +853,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -744,16 +868,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -775,15 +899,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -792,206 +907,215 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1001,10 +1125,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1013,15 +1134,25 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2190,297 +2321,285 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10.35" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.4666666666667" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.675" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="29.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="38.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.35" style="1" customWidth="1"/>
-    <col min="8" max="8" width="22.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="24" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.85" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.35" style="19" customWidth="1"/>
+    <col min="2" max="2" width="16.4666666666667" style="19" customWidth="1"/>
+    <col min="3" max="3" width="13.675" style="19" customWidth="1"/>
+    <col min="4" max="4" width="35.1416666666667" style="19" customWidth="1"/>
+    <col min="5" max="5" width="11.5" style="19" customWidth="1"/>
+    <col min="6" max="6" width="38.5" style="19" customWidth="1"/>
+    <col min="7" max="7" width="14.35" style="19" customWidth="1"/>
+    <col min="8" max="8" width="22.5" style="19" customWidth="1"/>
+    <col min="9" max="9" width="24" style="19" customWidth="1"/>
+    <col min="10" max="16384" width="8.85" style="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="31.5" customHeight="1" spans="1:8">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="19" customFormat="1" ht="31.5" customHeight="1" spans="1:9">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="4" t="s">
+      <c r="F1" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="21"/>
+      <c r="H1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="37" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" s="19" customFormat="1" ht="30" customHeight="1" spans="1:9">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="22">
+        <v>23</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="22">
+        <v>0</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="21"/>
+      <c r="H2" s="24">
+        <v>1</v>
+      </c>
+      <c r="I2" s="38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" s="19" customFormat="1" ht="45" customHeight="1" spans="1:9">
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="25">
+        <v>35</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="25">
+        <v>7.99</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="27"/>
+      <c r="H3" s="28">
+        <v>2</v>
+      </c>
+      <c r="I3" s="39" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" s="19" customFormat="1" ht="31.5" customHeight="1" spans="1:9">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="22">
+        <v>20</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="22">
+        <v>5.99</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="21"/>
+      <c r="H4" s="24">
+        <v>3</v>
+      </c>
+      <c r="I4" s="38" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" s="19" customFormat="1" ht="39" customHeight="1" spans="1:9">
+      <c r="A5" s="8">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="25">
+        <v>45</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="25">
+        <v>0</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="27"/>
+      <c r="H5" s="28">
+        <v>4</v>
+      </c>
+      <c r="I5" s="39" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" s="19" customFormat="1" ht="38.1" customHeight="1" spans="1:9">
+      <c r="A6" s="29"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
+    </row>
+    <row r="7" s="19" customFormat="1" ht="13.55" customHeight="1" spans="1:9">
+      <c r="A7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="33"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+    </row>
+    <row r="8" s="19" customFormat="1" ht="26.55" customHeight="1" spans="1:9">
+      <c r="A8" s="4">
+        <v>1</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="33"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+    </row>
+    <row r="9" s="19" customFormat="1" ht="13.55" customHeight="1" spans="1:9">
+      <c r="A9" s="8">
+        <v>2</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+    </row>
+    <row r="10" s="19" customFormat="1" ht="26.55" customHeight="1" spans="1:9">
+      <c r="A10" s="4">
+        <v>3</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="33"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+    </row>
+    <row r="11" s="19" customFormat="1" ht="39.55" customHeight="1" spans="1:9">
+      <c r="A11" s="8">
+        <v>4</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+    </row>
+    <row r="12" s="19" customFormat="1" ht="26.55" customHeight="1" spans="1:9">
+      <c r="A12" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" ht="30" customHeight="1" spans="1:8">
-      <c r="A2" s="7">
-        <v>1</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="9">
-        <v>23</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="11">
-        <v>1</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" ht="45" customHeight="1" spans="1:8">
-      <c r="A3" s="13">
-        <v>2</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="15">
-        <v>35</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="17"/>
-      <c r="G3" s="18">
-        <v>2</v>
-      </c>
-      <c r="H3" s="19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" ht="31.5" customHeight="1" spans="1:8">
-      <c r="A4" s="7">
-        <v>3</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="9">
-        <v>20</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="11">
-        <v>3</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" ht="39" customHeight="1" spans="1:8">
-      <c r="A5" s="13">
-        <v>4</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="15">
-        <v>45</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="17"/>
-      <c r="G5" s="18">
-        <v>4</v>
-      </c>
-      <c r="H5" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" ht="38.1" customHeight="1" spans="1:9">
-      <c r="A6" s="20"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-    </row>
-    <row r="7" ht="13.55" customHeight="1" spans="1:10">
-      <c r="A7" s="2" t="s">
+      <c r="B12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="24"/>
-      <c r="F7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-    </row>
-    <row r="8" ht="26.55" customHeight="1" spans="1:10">
-      <c r="A8" s="7">
-        <v>1</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="24"/>
-      <c r="F8" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="H8" s="9">
-        <v>0</v>
-      </c>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-    </row>
-    <row r="9" ht="13.55" customHeight="1" spans="1:10">
-      <c r="A9" s="13">
-        <v>2</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="27"/>
-      <c r="F9" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="H9" s="15">
-        <v>7.99</v>
-      </c>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-    </row>
-    <row r="10" ht="26.55" customHeight="1" spans="1:10">
-      <c r="A10" s="7">
-        <v>3</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="24"/>
-      <c r="F10" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="H10" s="9">
-        <v>5.99</v>
-      </c>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-    </row>
-    <row r="11" ht="39.55" customHeight="1" spans="1:10">
-      <c r="A11" s="13">
-        <v>4</v>
-      </c>
-      <c r="B11" s="14" t="s">
+      <c r="D12" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="27"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-    </row>
-    <row r="12" ht="26.55" customHeight="1" spans="1:9">
-      <c r="A12" s="7">
-        <v>5</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" s="24"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2489,4 +2608,756 @@
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetData>
+    <row r="1" ht="15" spans="1:3">
+      <c r="A1" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="18">
+        <v>7.99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="17">
+        <v>5.99</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="2"/>
+  <sheetData>
+    <row r="1" ht="15" spans="1:3">
+      <c r="A1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="17">
+        <v>23</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="18">
+        <v>35</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="17">
+        <v>20</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="18">
+        <v>45</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="1"/>
+  <cols>
+    <col min="2" max="2" width="18.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15" spans="1:2">
+      <c r="A1" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="13">
+        <v>1</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="13">
+        <v>2</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="13">
+        <v>3</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="13">
+        <v>4</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="3"/>
+  <cols>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="3" max="3" width="18.625" customWidth="1"/>
+    <col min="4" max="4" width="87.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="7"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="11"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="7"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="8">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="11"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
+  <cols>
+    <col min="2" max="2" width="39.75" customWidth="1"/>
+    <col min="3" max="3" width="12.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33:I34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="14.625" customWidth="1"/>
+    <col min="2" max="2" width="15.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="3"/>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>4</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="15.5" customWidth="1"/>
+    <col min="2" max="2" width="14.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>